--- a/ConvertedEqual/Virginia_Converted.xlsx
+++ b/ConvertedEqual/Virginia_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="273">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -798,6 +798,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X221"/>
+  <dimension ref="A1:X233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1500,13 +1536,13 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>1</v>
       </c>
       <c r="X7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -2621,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0.1025641025615385</v>
+        <v>0.1111111111083333</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2695,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2769,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2843,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2917,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2991,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -3065,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -3139,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3213,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3287,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0.538461538453846</v>
+        <v>0.5833333333249999</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3361,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0.538461538453846</v>
+        <v>0.5833333333249999</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3435,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>0.538461538453846</v>
+        <v>0.5833333333249999</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3509,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>0.5641025640923076</v>
+        <v>0.6111111110999999</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3583,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0.5641025640923076</v>
+        <v>0.6111111110999999</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3657,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0.5641025640923076</v>
+        <v>0.6111111110999999</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3731,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3805,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3879,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3953,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -4027,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4101,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -4175,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="X44">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -4249,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -4323,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4397,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4471,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4545,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4619,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4693,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4767,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4841,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4915,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4989,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -5063,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -5137,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -5211,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="X58">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -5285,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -5359,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -5433,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -5507,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -5581,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -5655,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="X64">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -5729,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="X65">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -5803,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="X66">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -5877,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="X67">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -5951,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="X68">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -6025,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="X69">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -6099,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="X70">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -6173,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="X71">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -6247,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="X72">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -6321,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="X73">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -6395,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="X74">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -6469,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="X75">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -6543,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -6617,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -6691,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -6765,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -6839,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="X80">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -6913,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="X81">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -6987,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="X82">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -7061,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -7135,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -7209,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -7283,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -7357,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -7431,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -7505,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -7579,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -7653,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -7727,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -7801,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -7875,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -7949,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -8023,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -8097,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -8171,7 +8207,7 @@
         <v>1</v>
       </c>
       <c r="X98">
-        <v>0.743589743576923</v>
+        <v>0.7222222222083333</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -8245,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="X99">
-        <v>0.7179487179384615</v>
+        <v>0.6944444444333332</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -8319,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="X100">
-        <v>0.7179487179384615</v>
+        <v>0.6944444444333332</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -8393,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="X101">
-        <v>0.7179487179384615</v>
+        <v>0.6944444444333332</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -8467,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="X102">
-        <v>0.7179487179384615</v>
+        <v>0.6944444444333332</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -8541,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="X103">
-        <v>0.7179487179384615</v>
+        <v>0.6944444444333332</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -8615,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="X104">
-        <v>0.7179487179384615</v>
+        <v>0.6944444444333332</v>
       </c>
     </row>
     <row r="105" spans="1:24">
@@ -8689,7 +8725,7 @@
         <v>1</v>
       </c>
       <c r="X105">
-        <v>0.7179487179384615</v>
+        <v>0.6944444444333332</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -8763,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="X106">
-        <v>0.7179487179384615</v>
+        <v>0.6944444444333332</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -8837,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="X107">
-        <v>0.7179487179384615</v>
+        <v>0.6944444444333332</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -8911,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="X108">
-        <v>0.7179487179384615</v>
+        <v>0.6944444444333332</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -8985,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="X109">
-        <v>0.7179487179384615</v>
+        <v>0.6944444444333332</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -9059,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="X110">
-        <v>0.7179487179384615</v>
+        <v>0.6944444444333332</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -9133,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="X111">
-        <v>0.6410256410153845</v>
+        <v>0.6111111110999999</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -9207,7 +9243,7 @@
         <v>1</v>
       </c>
       <c r="X112">
-        <v>0.6410256410153845</v>
+        <v>0.6111111110999999</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -9281,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="X113">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -9355,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="X114">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -9429,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="X115">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -9503,7 +9539,7 @@
         <v>1</v>
       </c>
       <c r="X116">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -9577,7 +9613,7 @@
         <v>1</v>
       </c>
       <c r="X117">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -9651,7 +9687,7 @@
         <v>1</v>
       </c>
       <c r="X118">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -9725,7 +9761,7 @@
         <v>1</v>
       </c>
       <c r="X119">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -9799,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="X120">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -9873,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="X121">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -9947,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="X122">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -10021,7 +10057,7 @@
         <v>1</v>
       </c>
       <c r="X123">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -10095,7 +10131,7 @@
         <v>1</v>
       </c>
       <c r="X124">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -10169,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="X125">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -10243,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="X126">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -10317,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="X127">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -10391,7 +10427,7 @@
         <v>1</v>
       </c>
       <c r="X128">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -10465,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="X129">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -10539,7 +10575,7 @@
         <v>1</v>
       </c>
       <c r="X130">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -10613,7 +10649,7 @@
         <v>1</v>
       </c>
       <c r="X131">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -10687,7 +10723,7 @@
         <v>1</v>
       </c>
       <c r="X132">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -10761,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="X133">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -10835,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="X134">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -10909,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="X135">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -10983,7 +11019,7 @@
         <v>1</v>
       </c>
       <c r="X136">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -11057,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="X137">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -11131,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="X138">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -11205,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="X139">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="140" spans="1:24">
@@ -11279,7 +11315,7 @@
         <v>1</v>
       </c>
       <c r="X140">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -11353,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="X141">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="142" spans="1:24">
@@ -11427,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="X142">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -11501,7 +11537,7 @@
         <v>1</v>
       </c>
       <c r="X143">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="144" spans="1:24">
@@ -11575,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="X144">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -11649,7 +11685,7 @@
         <v>1</v>
       </c>
       <c r="X145">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -11723,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="X146">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="147" spans="1:24">
@@ -11797,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="X147">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -11871,7 +11907,7 @@
         <v>1</v>
       </c>
       <c r="X148">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="149" spans="1:24">
@@ -11945,7 +11981,7 @@
         <v>1</v>
       </c>
       <c r="X149">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -12019,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="X150">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -12093,7 +12129,7 @@
         <v>1</v>
       </c>
       <c r="X151">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -12167,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="X152">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="153" spans="1:24">
@@ -12241,7 +12277,7 @@
         <v>1</v>
       </c>
       <c r="X153">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="154" spans="1:24">
@@ -12315,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="X154">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -12389,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="X155">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -12463,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="X156">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:24">
@@ -12537,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="X157">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -12611,7 +12647,7 @@
         <v>1</v>
       </c>
       <c r="X158">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="159" spans="1:24">
@@ -12685,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="X159">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:24">
@@ -12759,7 +12795,7 @@
         <v>1</v>
       </c>
       <c r="X160">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="161" spans="1:24">
@@ -12833,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="X161">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -12907,7 +12943,7 @@
         <v>1</v>
       </c>
       <c r="X162">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:24">
@@ -12981,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="X163">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="164" spans="1:24">
@@ -13055,7 +13091,7 @@
         <v>1</v>
       </c>
       <c r="X164">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:24">
@@ -13129,7 +13165,7 @@
         <v>1</v>
       </c>
       <c r="X165">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:24">
@@ -13203,7 +13239,7 @@
         <v>1</v>
       </c>
       <c r="X166">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="167" spans="1:24">
@@ -13277,7 +13313,7 @@
         <v>1</v>
       </c>
       <c r="X167">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:24">
@@ -13351,7 +13387,7 @@
         <v>1</v>
       </c>
       <c r="X168">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="169" spans="1:24">
@@ -13425,7 +13461,7 @@
         <v>1</v>
       </c>
       <c r="X169">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:24">
@@ -13499,7 +13535,7 @@
         <v>1</v>
       </c>
       <c r="X170">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:24">
@@ -13573,7 +13609,7 @@
         <v>1</v>
       </c>
       <c r="X171">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -13647,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="X172">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -13721,7 +13757,7 @@
         <v>1</v>
       </c>
       <c r="X173">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="174" spans="1:24">
@@ -13795,7 +13831,7 @@
         <v>1</v>
       </c>
       <c r="X174">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:24">
@@ -13869,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="X175">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="176" spans="1:24">
@@ -13943,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="X176">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -14017,7 +14053,7 @@
         <v>1</v>
       </c>
       <c r="X177">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:24">
@@ -14091,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="X178">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:24">
@@ -14165,7 +14201,7 @@
         <v>1</v>
       </c>
       <c r="X179">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="180" spans="1:24">
@@ -14239,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="X180">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:24">
@@ -14313,7 +14349,7 @@
         <v>1</v>
       </c>
       <c r="X181">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="182" spans="1:24">
@@ -14387,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="X182">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="183" spans="1:24">
@@ -14461,7 +14497,7 @@
         <v>1</v>
       </c>
       <c r="X183">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:24">
@@ -14535,7 +14571,7 @@
         <v>1</v>
       </c>
       <c r="X184">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:24">
@@ -14609,7 +14645,7 @@
         <v>1</v>
       </c>
       <c r="X185">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -14683,7 +14719,7 @@
         <v>1</v>
       </c>
       <c r="X186">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:24">
@@ -14757,7 +14793,7 @@
         <v>1</v>
       </c>
       <c r="X187">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:24">
@@ -14831,7 +14867,7 @@
         <v>1</v>
       </c>
       <c r="X188">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:24">
@@ -14905,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="X189">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:24">
@@ -14979,7 +15015,7 @@
         <v>1</v>
       </c>
       <c r="X190">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:24">
@@ -15053,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="X191">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:24">
@@ -15127,7 +15163,7 @@
         <v>1</v>
       </c>
       <c r="X192">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:24">
@@ -15201,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="X193">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:24">
@@ -15275,7 +15311,7 @@
         <v>1</v>
       </c>
       <c r="X194">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -15349,7 +15385,7 @@
         <v>1</v>
       </c>
       <c r="X195">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -15423,7 +15459,7 @@
         <v>1</v>
       </c>
       <c r="X196">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -15497,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="X197">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:24">
@@ -15571,7 +15607,7 @@
         <v>1</v>
       </c>
       <c r="X198">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:24">
@@ -15645,7 +15681,7 @@
         <v>1</v>
       </c>
       <c r="X199">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:24">
@@ -15719,7 +15755,7 @@
         <v>1</v>
       </c>
       <c r="X200">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -15793,7 +15829,7 @@
         <v>1</v>
       </c>
       <c r="X201">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:24">
@@ -15867,7 +15903,7 @@
         <v>1</v>
       </c>
       <c r="X202">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:24">
@@ -15941,7 +15977,7 @@
         <v>1</v>
       </c>
       <c r="X203">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:24">
@@ -16015,7 +16051,7 @@
         <v>1</v>
       </c>
       <c r="X204">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -16089,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="X205">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -16163,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="X206">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="207" spans="1:24">
@@ -16237,7 +16273,7 @@
         <v>1</v>
       </c>
       <c r="X207">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:24">
@@ -16311,7 +16347,7 @@
         <v>1</v>
       </c>
       <c r="X208">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:24">
@@ -16385,7 +16421,7 @@
         <v>1</v>
       </c>
       <c r="X209">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:24">
@@ -16459,7 +16495,7 @@
         <v>1</v>
       </c>
       <c r="X210">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="211" spans="1:24">
@@ -16533,7 +16569,7 @@
         <v>1</v>
       </c>
       <c r="X211">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:24">
@@ -16607,7 +16643,7 @@
         <v>1</v>
       </c>
       <c r="X212">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:24">
@@ -16681,7 +16717,7 @@
         <v>1</v>
       </c>
       <c r="X213">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:24">
@@ -16755,7 +16791,7 @@
         <v>1</v>
       </c>
       <c r="X214">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:24">
@@ -16829,7 +16865,7 @@
         <v>1</v>
       </c>
       <c r="X215">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="216" spans="1:24">
@@ -16903,7 +16939,7 @@
         <v>1</v>
       </c>
       <c r="X216">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:24">
@@ -16977,7 +17013,7 @@
         <v>1</v>
       </c>
       <c r="X217">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:24">
@@ -17051,7 +17087,7 @@
         <v>1</v>
       </c>
       <c r="X218">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="219" spans="1:24">
@@ -17125,7 +17161,7 @@
         <v>1</v>
       </c>
       <c r="X219">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="220" spans="1:24">
@@ -17199,7 +17235,7 @@
         <v>1</v>
       </c>
       <c r="X220">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="221" spans="1:24">
@@ -17273,7 +17309,895 @@
         <v>1</v>
       </c>
       <c r="X221">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24">
+      <c r="A222" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>1</v>
+      </c>
+      <c r="U222">
+        <v>1</v>
+      </c>
+      <c r="V222">
+        <v>1</v>
+      </c>
+      <c r="W222">
+        <v>1</v>
+      </c>
+      <c r="X222">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24">
+      <c r="A223" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>1</v>
+      </c>
+      <c r="U223">
+        <v>1</v>
+      </c>
+      <c r="V223">
+        <v>1</v>
+      </c>
+      <c r="W223">
+        <v>1</v>
+      </c>
+      <c r="X223">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24">
+      <c r="A224" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>1</v>
+      </c>
+      <c r="U224">
+        <v>1</v>
+      </c>
+      <c r="V224">
+        <v>1</v>
+      </c>
+      <c r="W224">
+        <v>1</v>
+      </c>
+      <c r="X224">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24">
+      <c r="A225" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>1</v>
+      </c>
+      <c r="U225">
+        <v>1</v>
+      </c>
+      <c r="V225">
+        <v>1</v>
+      </c>
+      <c r="W225">
+        <v>1</v>
+      </c>
+      <c r="X225">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24">
+      <c r="A226" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
+      <c r="U226">
+        <v>1</v>
+      </c>
+      <c r="V226">
+        <v>1</v>
+      </c>
+      <c r="W226">
+        <v>1</v>
+      </c>
+      <c r="X226">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24">
+      <c r="A227" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>1</v>
+      </c>
+      <c r="U227">
+        <v>1</v>
+      </c>
+      <c r="V227">
+        <v>1</v>
+      </c>
+      <c r="W227">
+        <v>1</v>
+      </c>
+      <c r="X227">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24">
+      <c r="A228" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>1</v>
+      </c>
+      <c r="U228">
+        <v>1</v>
+      </c>
+      <c r="V228">
+        <v>1</v>
+      </c>
+      <c r="W228">
+        <v>1</v>
+      </c>
+      <c r="X228">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24">
+      <c r="A229" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>1</v>
+      </c>
+      <c r="U229">
+        <v>1</v>
+      </c>
+      <c r="V229">
+        <v>1</v>
+      </c>
+      <c r="W229">
+        <v>1</v>
+      </c>
+      <c r="X229">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24">
+      <c r="A230" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>1</v>
+      </c>
+      <c r="U230">
+        <v>1</v>
+      </c>
+      <c r="V230">
+        <v>1</v>
+      </c>
+      <c r="W230">
+        <v>1</v>
+      </c>
+      <c r="X230">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24">
+      <c r="A231" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>1</v>
+      </c>
+      <c r="U231">
+        <v>1</v>
+      </c>
+      <c r="V231">
+        <v>1</v>
+      </c>
+      <c r="W231">
+        <v>1</v>
+      </c>
+      <c r="X231">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24">
+      <c r="A232" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>1</v>
+      </c>
+      <c r="U232">
+        <v>1</v>
+      </c>
+      <c r="V232">
+        <v>1</v>
+      </c>
+      <c r="W232">
+        <v>1</v>
+      </c>
+      <c r="X232">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24">
+      <c r="A233" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>1</v>
+      </c>
+      <c r="U233">
+        <v>1</v>
+      </c>
+      <c r="V233">
+        <v>1</v>
+      </c>
+      <c r="W233">
+        <v>1</v>
+      </c>
+      <c r="X233">
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
